--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia</t>
+          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome and Type 2 Achalasia often experience a gradual worsening of swallowing difficulties.</t>
+          <t>These findings are characteristic of CREST syndrome and are not typically associated with food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of dysphagia</t>
+          <t>Acute onset of severe chest pain or discomfort</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food impaction typically presents with a sudden onset of swallowing difficulties, unlike the gradual onset in CREST syndrome.</t>
+          <t>Acute chest pain is more indicative of food impaction than the gradual symptoms of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark feature of CREST syndrome, indicating systemic sclerosis.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and is not seen in food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of recent eating habits</t>
+          <t>Recent history of eating solid food that is difficult to swallow</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Food impaction is often related to specific recent dietary choices, such as large or dry food items.</t>
+          <t>This history is directly related to food impaction and not typical for CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of Raynaud's phenomenon</t>
+          <t>Gradual onset of dysphagia (difficulty swallowing)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and can precede esophageal symptoms.</t>
+          <t>Dysphagia in CREST syndrome is often progressive due to esophageal motility issues, unlike acute food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Localized chest discomfort</t>
+          <t>Presence of visible food bolus on examination</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patients with food impaction may report localized discomfort rather than the diffuse symptoms seen in CREST syndrome.</t>
+          <t>A visible food bolus is a direct indicator of food impaction, not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chest pain related to swallowing</t>
+          <t>Associated symptoms of gastrointestinal reflux or heartburn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chest pain in CREST syndrome with Type 2 Achalasia is often linked to esophageal motility issues.</t>
+          <t>These symptoms are more common in CREST syndrome due to esophageal involvement compared to food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No associated systemic symptoms</t>
+          <t>History of previous episodes of food impaction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Food impaction usually does not present with systemic symptoms like those seen in CREST syndrome.</t>
+          <t>Recurrent food impaction is a strong indicator of this condition, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of reflux symptoms</t>
+          <t>History of connective tissue disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reflux symptoms can be more prevalent in patients with Type 2 Achalasia due to esophageal dysfunction.</t>
+          <t>A prior diagnosis of a connective tissue disease supports the diagnosis of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Immediate relief after vomiting</t>
+          <t>Immediate relief of symptoms after vomiting or regurgitation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Patients with food impaction often experience relief after expelling the obstructing food, which is not typical in CREST syndrome.</t>
+          <t>Relief after expulsion of food is characteristic of food impaction, not CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of recurrent dysphagia</t>
+          <t>History of recent food bolus obstruction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recurrent dysphagia is more indicative of food impaction than of CREST syndrome.</t>
+          <t>Recent episodes of food bolus obstruction are characteristic of food impaction.</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Previous episodes of food impaction</t>
+          <t>History of dysphagia without systemic symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A history of food impaction directly supports the diagnosis of food impaction over CREST syndrome.</t>
+          <t>Dysphagia in food impaction typically occurs without the systemic symptoms seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of autoimmune diseases</t>
+          <t>No history of connective tissue disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of autoimmune diseases suggests a lower likelihood of CREST syndrome.</t>
+          <t>Absence of connective tissue disease history supports a diagnosis of food impaction over CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -689,34 +689,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Use of medications for gastroesophageal reflux disease (GERD)</t>
+          <t>Previous endoscopic interventions for food impaction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Medications for GERD may indicate food impaction rather than CREST syndrome.</t>
+          <t>Prior endoscopic procedures for food impaction indicate a recurrent issue not related to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Use of medications for systemic sclerosis</t>
+          <t>Use of immunosuppressive medications</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Medications like immunosuppressants for systemic sclerosis indicate CREST syndrome, which is not relevant for food impaction.</t>
+          <t>Patients with CREST syndrome may be on immunosuppressive therapy, which is not common in food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of esophageal strictures</t>
+          <t>Use of medications for gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Esophageal strictures are more commonly associated with food impaction than with CREST syndrome.</t>
+          <t>Medications for GERD may indicate a history of esophageal issues more typical of food impaction.</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prior incidents of food impaction suggest a higher likelihood of recurrence.</t>
+          <t>Prior episodes of food impaction suggest a higher likelihood of recurrence rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of autoimmune conditions in the family reduces the likelihood of CREST syndrome.</t>
+          <t>Absence of autoimmune diseases in the family reduces the likelihood of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engagement in high-risk eating behaviors (e.g., eating quickly)</t>
+          <t>Active participation in high-risk eating behaviors</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Behaviors that increase the risk of swallowing difficulties are more indicative of food impaction.</t>
+          <t>Engaging in behaviors that increase the risk of choking or impaction supports the diagnosis of food impaction.</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acute chest pain is more characteristic of food impaction than of CREST syndrome.</t>
+          <t>Acute chest pain is more characteristic of food impaction due to obstruction rather than the gradual symptoms of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -952,29 +952,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A palpable food bolus is a direct indicator of food impaction, not seen in CREST syndrome.</t>
+          <t>A palpable food bolus is a direct indicator of food impaction, which is not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bilateral pulmonary fibrosis on auscultation</t>
+          <t>Bilateral pulmonary fibrosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis can be associated with CREST syndrome, while food impaction does not cause lung findings.</t>
+          <t>Pulmonary fibrosis can occur in CREST syndrome and is not a feature of food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Localized tenderness in the epigastric region</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Localized tenderness is more indicative of food impaction rather than the systemic findings of CREST syndrome.</t>
+          <t>A normal skin exam suggests the absence of sclerodactyly or telangiectasia, favoring food impaction over CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -986,39 +986,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is due to esophageal motility issues, while food impaction typically presents with acute swallowing difficulty without regurgitation.</t>
+          <t>Dysphagia in CREST syndrome is due to esophageal motility issues, while in food impaction, it is typically acute and related to obstruction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal skin examination</t>
+          <t>Localized tenderness in the chest or abdomen</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal skin examination suggests the absence of sclerodactyly or telangiectasia, favoring food impaction.</t>
+          <t>Localized tenderness is more indicative of food impaction rather than the systemic findings of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decreased peristalsis on physical exam</t>
+          <t>Decreased bowel sounds</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decreased peristalsis is indicative of Type 2 Achalasia, which is part of CREST syndrome, and is not a feature of food impaction.</t>
+          <t>Decreased bowel sounds may indicate a motility disorder associated with CREST syndrome, unlike the normal or increased sounds in food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No signs of esophageal motility disorder</t>
+          <t>Normal respiratory exam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of motility disorder findings suggests food impaction rather than CREST syndrome with Type 2 Achalasia.</t>
+          <t>A normal respiratory exam suggests no pulmonary complications, which would favor food impaction over CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Direct observation of food bolus obstruction during endoscopy strongly supports food impaction.</t>
+          <t>Direct observation of food bolus obstruction during endoscopy strongly indicates food impaction.</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal motility suggests that the esophagus is functioning properly, which is more consistent with food impaction than achalasia.</t>
+          <t>Normal motility suggests that the esophagus is functioning properly, which is inconsistent with achalasia.</t>
         </is>
       </c>
     </row>
@@ -1120,56 +1120,56 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing localized obstruction without dilation</t>
+          <t>Barium swallow study showing no significant esophageal dilation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Localized obstruction without esophageal dilation is indicative of food impaction rather than achalasia.</t>
+          <t>Absence of significant dilation suggests that the esophagus is not affected by achalasia, favoring food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal imaging revealing a 'bird-beak' appearance</t>
+          <t>Endoscopic findings of esophageal dilation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The 'bird-beak' appearance on imaging is a classic sign of achalasia, supporting CREST syndrome.</t>
+          <t>Esophageal dilation is a common finding in achalasia, which is part of the CREST syndrome presentation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of anti-centromere antibodies</t>
+          <t>Presence of acute symptoms after eating</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of these antibodies suggests a lower likelihood of CREST syndrome, favoring food impaction.</t>
+          <t>Acute symptoms following meals are more indicative of food impaction rather than chronic achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal dilation</t>
+          <t>Imaging showing esophageal stasis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal dilation observed during endoscopy is consistent with achalasia, which is linked to CREST syndrome.</t>
+          <t>Esophageal stasis is a result of impaired motility in achalasia, supporting the diagnosis of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CT scan showing impacted food in the esophagus</t>
+          <t>Radiologic evidence of localized obstruction without dilation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CT imaging revealing impacted food directly supports the diagnosis of food impaction.</t>
+          <t>Localized obstruction without dilation is more consistent with food impaction than with achalasia.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and are not typically associated with food impaction.</t>
+          <t>This is characteristic of Type 2 Achalasia, where both solids and liquids are difficult to swallow due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of severe chest pain or discomfort</t>
+          <t>Acute onset of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acute chest pain is more indicative of food impaction than the gradual symptoms of CREST syndrome.</t>
+          <t>Food impaction typically presents with a sudden inability to swallow, especially solids.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome and is not seen in food impaction.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating systemic involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent history of eating solid food that is difficult to swallow</t>
+          <t>Recent ingestion of poorly chewed food</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This history is directly related to food impaction and not typical for CREST syndrome.</t>
+          <t>Food impaction often follows the ingestion of large or poorly chewed food pieces.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gradual onset of dysphagia (difficulty swallowing)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is often progressive due to esophageal motility issues, unlike acute food impaction.</t>
+          <t>Sclerodactyly is a specific finding in CREST syndrome, indicating skin changes associated with systemic sclerosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Presence of visible food bolus on examination</t>
+          <t>Localized chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A visible food bolus is a direct indicator of food impaction, not seen in CREST syndrome.</t>
+          <t>Localized chest pain is common in food impaction due to esophageal obstruction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Associated symptoms of gastrointestinal reflux or heartburn</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>These symptoms are more common in CREST syndrome due to esophageal involvement compared to food impaction.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome, representing vascular involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of previous episodes of food impaction</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Recurrent food impaction is a strong indicator of this condition, unlike CREST syndrome.</t>
+          <t>Regurgitation of undigested food is a typical symptom of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of connective tissue disease</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A prior diagnosis of a connective tissue disease supports the diagnosis of CREST syndrome.</t>
+          <t>A known history of esophageal motility disorder supports Type 2 Achalasia, which is part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Immediate relief of symptoms after vomiting or regurgitation</t>
+          <t>No systemic symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Relief after expulsion of food is characteristic of food impaction, not CREST syndrome.</t>
+          <t>The absence of systemic symptoms like those seen in CREST syndrome supports a diagnosis of food impaction.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark feature of CREST syndrome, indicating systemic sclerosis.</t>
+          <t>Scleroderma is a component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of recent food bolus obstruction</t>
+          <t>History of esophageal strictures</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recent episodes of food bolus obstruction are characteristic of food impaction.</t>
+          <t>Esophageal strictures are more commonly associated with food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is less likely in food impaction cases.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of dysphagia without systemic symptoms</t>
+          <t>History of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dysphagia in food impaction typically occurs without the systemic symptoms seen in CREST syndrome.</t>
+          <t>Eosinophilic esophagitis is a common cause of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of esophageal motility disorders</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is characterized by esophageal motility issues, which are not typical in food impaction.</t>
+          <t>Telangiectasia is a characteristic finding in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of connective tissue disease</t>
+          <t>Frequent episodes of food impaction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of connective tissue disease history supports a diagnosis of food impaction over CREST syndrome.</t>
+          <t>Recurrent food impaction episodes are indicative of underlying esophageal pathology.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Previous diagnosis of CREST syndrome</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A prior diagnosis of CREST syndrome directly supports the likelihood of Type 2 Achalasia.</t>
+          <t>Calcinosis is part of the CREST syndrome spectrum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previous endoscopic interventions for food impaction</t>
+          <t>History of esophageal surgery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prior endoscopic procedures for food impaction indicate a recurrent issue not related to CREST syndrome.</t>
+          <t>Previous esophageal surgery can lead to structural changes causing food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive medications</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome may be on immunosuppressive therapy, which is not common in food impaction.</t>
+          <t>Sclerodactyly is a specific feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Use of medications for gastroesophageal reflux disease (GERD)</t>
+          <t>Use of proton pump inhibitors</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Medications for GERD may indicate a history of esophageal issues more typical of food impaction.</t>
+          <t>Proton pump inhibitors are often used in conditions like GERD, which can lead to food impaction.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, suggesting a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of recent dietary changes or food habits</t>
+          <t>History of dietary habits leading to food impaction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Changes in diet can lead to food impaction, making it more likely than CREST syndrome.</t>
+          <t>Certain eating behaviors, such as rapid eating or inadequate chewing, can increase the risk of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly or skin changes</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are a hallmark of CREST syndrome, indicating its presence over Food impaction.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and may indicate a familial predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Increased consumption of fibrous or large food items</t>
+          <t>Family history of esophageal strictures</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eating habits that include large or fibrous foods are directly linked to food impaction.</t>
+          <t>Esophageal strictures can lead to food impaction and may have a familial component.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental triggers</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain occupations may increase the risk of autoimmune diseases like CREST syndrome.</t>
+          <t>Scleroderma is a key component of CREST syndrome and a family history increases the likelihood of the syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of esophageal strictures or previous food impaction episodes</t>
+          <t>History of alcohol use</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prior episodes of food impaction suggest a higher likelihood of recurrence rather than CREST syndrome.</t>
+          <t>Alcohol use can affect esophageal motility and increase the risk of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lifestyle factors indicating chronic stress</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress can exacerbate autoimmune conditions, potentially linking to CREST syndrome.</t>
+          <t>Type 2 Achalasia is an esophageal motility disorder, and a family history can suggest a genetic predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lack of family history of autoimmune diseases</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of autoimmune diseases in the family reduces the likelihood of CREST syndrome.</t>
+          <t>Smoking can contribute to esophageal conditions that predispose to food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Family history of calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's is commonly associated with CREST syndrome, distinguishing it from Food impaction.</t>
+          <t>Calcinosis is part of the CREST syndrome spectrum and a family history can indicate a higher risk.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Active participation in high-risk eating behaviors</t>
+          <t>Family history of gastrointestinal disorders</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Engaging in behaviors that increase the risk of choking or impaction supports the diagnosis of food impaction.</t>
+          <t>A family history of gastrointestinal disorders can increase the risk of conditions leading to food impaction.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not typically seen in food impaction.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of severe chest pain</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acute chest pain is more characteristic of food impaction due to obstruction rather than the gradual symptoms of CREST syndrome.</t>
+          <t>Absence of skin changes like sclerodactyly or telangiectasia suggests against CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome, whereas it is not associated with food impaction.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Presence of food bolus on physical exam</t>
+          <t>Absence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A palpable food bolus is a direct indicator of food impaction, which is not seen in CREST syndrome.</t>
+          <t>Lack of color changes in fingers with cold exposure is more consistent with food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bilateral pulmonary fibrosis</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis can occur in CREST syndrome and is not a feature of food impaction.</t>
+          <t>Calcium deposits in the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal skin examination</t>
+          <t>Normal nailfold capillaries</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal skin exam suggests the absence of sclerodactyly or telangiectasia, favoring food impaction over CREST syndrome.</t>
+          <t>Normal capillary patterns at the nailfolds are not typical of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) with regurgitation</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is due to esophageal motility issues, while in food impaction, it is typically acute and related to obstruction.</t>
+          <t>Episodes of reduced blood flow to the fingers, causing color changes, are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Localized tenderness in the chest or abdomen</t>
+          <t>Absence of digital ulcers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Localized tenderness is more indicative of food impaction rather than the systemic findings of CREST syndrome.</t>
+          <t>No ulcers on fingertips are more consistent with food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decreased bowel sounds</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decreased bowel sounds may indicate a motility disorder associated with CREST syndrome, unlike the normal or increased sounds in food impaction.</t>
+          <t>Ulcers on the fingertips are often seen in CREST syndrome due to poor circulation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal respiratory exam</t>
+          <t>Normal hand examination</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal respiratory exam suggests no pulmonary complications, which would favor food impaction over CREST syndrome.</t>
+          <t>No thickening or tightening of the skin on the hands suggests against CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by esophageal manometry findings of impaired relaxation of the lower esophageal sphincter and pan-esophageal pressurization, which is not seen in food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Endoscopic evidence of food bolus obstruction</t>
+          <t>Endoscopic visualization of impacted food</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Direct observation of food bolus obstruction during endoscopy strongly indicates food impaction.</t>
+          <t>Direct visualization of food impaction during endoscopy is definitive for diagnosing food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with decreased peristalsis</t>
+          <t>Antinuclear antibody (ANA) positivity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A dilated esophagus with decreased peristalsis is indicative of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>ANA positivity is often associated with CREST syndrome, which is not typically seen in isolated food impaction cases.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal motility suggests that the esophagus is functioning properly, which is inconsistent with achalasia.</t>
+          <t>Normal esophageal manometry suggests against achalasia and is more consistent with food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>Barium swallow showing 'bird-beak' appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are commonly associated with CREST syndrome, distinguishing it from food impaction.</t>
+          <t>The 'bird-beak' appearance on barium swallow is indicative of achalasia, particularly in the context of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing no significant esophageal dilation</t>
+          <t>Absence of esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of significant dilation suggests that the esophagus is not affected by achalasia, favoring food impaction.</t>
+          <t>Lack of esophageal dilation on imaging is more typical of food impaction than achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal dilation</t>
+          <t>High-resolution esophageal manometry (HREM) findings</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esophageal dilation is a common finding in achalasia, which is part of the CREST syndrome presentation.</t>
+          <t>HREM can show specific patterns of esophageal motility disorders like Type 2 Achalasia, which are not present in food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presence of acute symptoms after eating</t>
+          <t>CT scan showing localized esophageal obstruction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acute symptoms following meals are more indicative of food impaction rather than chronic achalasia.</t>
+          <t>CT findings of localized obstruction without esophageal motility disorder are more indicative of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Imaging showing esophageal stasis</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal stasis is a result of impaired motility in achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>Chronic esophageal dilation is more consistent with achalasia than with acute food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Radiologic evidence of localized obstruction without dilation</t>
+          <t>Rapid resolution of symptoms post-endoscopic removal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Localized obstruction without dilation is more consistent with food impaction than with achalasia.</t>
+          <t>Rapid symptom resolution after endoscopic removal of the obstruction is characteristic of food impaction.</t>
         </is>
       </c>
     </row>
